--- a/back-end/Data/ALL-Orange-Data/3-pt-orange-2-triethanolamine-output_rgb_values.xlsx
+++ b/back-end/Data/ALL-Orange-Data/3-pt-orange-2-triethanolamine-output_rgb_values.xlsx
@@ -55,7 +55,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +66,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -540,148 +533,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,7 +1045,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1060,6 +1053,7 @@
     <col min="1" max="1" width="15.3611111111111" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.4722222222222" customWidth="1"/>
     <col min="3" max="5" width="12.8888888888889"/>
+    <col min="7" max="7" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1088,13 +1082,13 @@
         <v>0.386452931007386</v>
       </c>
       <c r="C2" s="6">
-        <v>152.97641025641</v>
+        <v>167.118205128205</v>
       </c>
       <c r="D2" s="6">
         <v>160.232564102564</v>
       </c>
       <c r="E2" s="6">
-        <v>167.118205128205</v>
+        <v>152.97641025641</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1106,13 +1100,13 @@
         <v>0.480748074807481</v>
       </c>
       <c r="C3" s="6">
-        <v>151.181538461539</v>
+        <v>169.583076923077</v>
       </c>
       <c r="D3" s="6">
         <v>160.600512820513</v>
       </c>
       <c r="E3" s="6">
-        <v>169.583076923077</v>
+        <v>151.181538461539</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1124,13 +1118,13 @@
         <v>0.527895646707528</v>
       </c>
       <c r="C4" s="6">
-        <v>174.799487179487</v>
+        <v>189.964871794872</v>
       </c>
       <c r="D4" s="6">
         <v>182.545897435897</v>
       </c>
       <c r="E4" s="6">
-        <v>189.964871794872</v>
+        <v>174.799487179487</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1142,13 +1136,13 @@
         <v>0.622190790507622</v>
       </c>
       <c r="C5" s="6">
-        <v>161.674615384615</v>
+        <v>174.167948717949</v>
       </c>
       <c r="D5" s="6">
         <v>167.825641025641</v>
       </c>
       <c r="E5" s="6">
-        <v>174.167948717949</v>
+        <v>161.674615384615</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1160,13 +1154,13 @@
         <v>0.936507936507937</v>
       </c>
       <c r="C6" s="6">
-        <v>188.692564102564</v>
+        <v>199.648461538462</v>
       </c>
       <c r="D6" s="6">
         <v>193.361025641026</v>
       </c>
       <c r="E6" s="6">
-        <v>199.648461538462</v>
+        <v>188.692564102564</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1178,13 +1172,13 @@
         <v>1.31368851170831</v>
       </c>
       <c r="C7" s="6">
-        <v>149.216923076923</v>
+        <v>174.691282051282</v>
       </c>
       <c r="D7" s="6">
         <v>163.374358974359</v>
       </c>
       <c r="E7" s="6">
-        <v>174.691282051282</v>
+        <v>149.216923076923</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1196,13 +1190,13 @@
         <v>5.58840169731259</v>
       </c>
       <c r="C8" s="6">
-        <v>110.362307692308</v>
+        <v>175.48717948718</v>
       </c>
       <c r="D8" s="6">
         <v>153.634102564103</v>
       </c>
       <c r="E8" s="6">
-        <v>175.48717948718</v>
+        <v>110.362307692308</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1214,13 +1208,13 @@
         <v>17.8153386767248</v>
       </c>
       <c r="C9" s="6">
-        <v>37.7125</v>
+        <v>203.383854166667</v>
       </c>
       <c r="D9" s="6">
         <v>147.311979166667</v>
       </c>
       <c r="E9" s="6">
-        <v>203.383854166667</v>
+        <v>37.7125</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1232,13 +1226,13 @@
         <v>19.8898318403269</v>
       </c>
       <c r="C10" s="6">
-        <v>36.711282051282</v>
+        <v>186.655897435897</v>
       </c>
       <c r="D10" s="6">
         <v>132.877179487179</v>
       </c>
       <c r="E10" s="6">
-        <v>186.655897435897</v>
+        <v>36.711282051282</v>
       </c>
     </row>
   </sheetData>
